--- a/data/georgia_census/imereti/terjola/education_graduates.xlsx
+++ b/data/georgia_census/imereti/terjola/education_graduates.xlsx
@@ -1816,13 +1816,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A822F15F-81FF-4AE8-9D8B-63496CAB67D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8CC53B0-14BB-4879-B16C-436F2573DD30}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1049E244-86DC-444F-94A9-4391B081FE58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E5F802-D051-4013-B51F-BE80CA362E4E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{877EEE9A-12A2-4002-B2CF-C422D69C1DF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082DC7FC-F0BA-40A7-86D3-0E9481C9677C}"/>
 </file>